--- a/ML_11012020/data1.xlsx
+++ b/ML_11012020/data1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCLaptop.com\Desktop\Intro-to-Machine-learning\ML_11012020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2F5DA-BEAE-4288-B36D-287A81180E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BED2B8A-1520-47CC-8346-2400E3C0E1DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -41,15 +35,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>NN</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>Nguyen Van 1</t>
   </si>
   <si>
@@ -57,17 +42,56 @@
   </si>
   <si>
     <t>Nguyen Van 3</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Nguyen Van 4</t>
+  </si>
+  <si>
+    <t>Nguyen Van 5</t>
+  </si>
+  <si>
+    <t>Nguyen Van 6</t>
+  </si>
+  <si>
+    <t>Nguyen Van 7</t>
+  </si>
+  <si>
+    <t>Nguyen Van 8</t>
+  </si>
+  <si>
+    <t>Nguyen Van 9</t>
+  </si>
+  <si>
+    <t>Nguyen Van 10</t>
+  </si>
+  <si>
+    <t>Nguyen Van 11</t>
+  </si>
+  <si>
+    <t>Nguyen Van 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -209,7 +233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -403,26 +427,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025EB47C-3D77-427B-9466-DAF18B9B90AB}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,24 +456,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
@@ -455,39 +484,272 @@
       <c r="E2" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(15, 21)</f>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" ref="C4:C13" ca="1" si="0">RANDBETWEEN(15, 21)</f>
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:F13" ca="1" si="1">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
